--- a/4-1/전산통계/13주차/전산통계-13주차-과제.xlsx
+++ b/4-1/전산통계/13주차/전산통계-13주차-과제.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haram/Project/University/4-1/전산통계/13주차/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29B5DD-6005-4943-A4F2-E663422899C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C08F8-1F64-8B42-ADB5-1F5C821C5BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" activeTab="6" xr2:uid="{7AD97624-4580-6E48-83F9-BB7F48EA2673}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20180" activeTab="6" xr2:uid="{7AD97624-4580-6E48-83F9-BB7F48EA2673}"/>
   </bookViews>
   <sheets>
     <sheet name="적합도 검정" sheetId="1" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1848,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8201C0F4-B3B4-BC49-A342-9DCD6D738448}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
